--- a/Energy budget.xlsx
+++ b/Energy budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\untrol.io\10. Open Source\SARA-R5-application-board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\untrol.io\10. Open Source\SARA-Rx-application-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B4992-6914-441D-812F-F21CD943F8C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC9840-20E7-4904-AEC4-9C8C661DABD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B8E27D7C-3530-4B22-B4BE-2AB8B3E38186}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="B2" s="1">
         <f>F4*3.3*24*60*60</f>
-        <v>39.907296000000002</v>
+        <v>710.42400000000009</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -591,18 +591,18 @@
         <v>0.12</v>
       </c>
       <c r="G2" s="4">
-        <v>4.0000000000000003E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="J2">
-        <f>3*24</f>
-        <v>72</v>
+        <f>15*24</f>
+        <v>360</v>
       </c>
       <c r="K2">
         <f>24*60*60-J2</f>
-        <v>86328</v>
+        <v>86040</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2/0.825</f>
-        <v>48.372480000000003</v>
+        <v>861.12000000000012</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="F4" s="4">
         <f>(F2*J2+G2*K2)/(J2+K2)</f>
-        <v>1.3996666666666666E-4</v>
+        <v>2.4916666666666668E-3</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" s="4">
         <f>B4/(J6*0.7)</f>
-        <v>1.9195428571428573E-3</v>
+        <v>3.4171428571428575E-2</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -690,7 +690,7 @@
         <v>4.12</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G7">
         <v>3.3</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="B8" s="1">
         <f>K6/(J6+K6)*B4</f>
-        <v>28.217280000000002</v>
+        <v>502.32000000000011</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="B10" s="1">
         <f>2*B8/(E7^2-(F7^2))</f>
-        <v>7.0769662921348324</v>
+        <v>250.25906735751312</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="B12" s="1">
         <f>(B10*G8*G7)/(B6*0.4)</f>
-        <v>11253.95014044944</v>
+        <v>22355.395575926679</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="B14" s="2">
         <f>B8/(3.3*3600)*1000</f>
-        <v>2.3751919191919191</v>
+        <v>42.282828282828291</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
